--- a/biology/Zoologie/Anomalophlebia_nitida/Anomalophlebia_nitida.xlsx
+++ b/biology/Zoologie/Anomalophlebia_nitida/Anomalophlebia_nitida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anomalophlebia nitida  est une espèce de libellules de la famille des Gomphidae (sous-ordre des Anisoptères)[2]. C'est l'unique espèce du genre Anomalophlebia (monotypique).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anomalophlebia nitida  est une espèce de libellules de la famille des Gomphidae (sous-ordre des Anisoptères). C'est l'unique espèce du genre Anomalophlebia (monotypique).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Anomalophlebia nitida, une femelle dont l'abdomen est endommagé entre les segments 4 et 5, mesure 38 mm dont 29 mm pour l'abdomen[3]. Ses ailes postérieures mesurent 24 mm[3].
-L'holotype a été découvert au Venezuela, dans l'État de Bolívar, à une altitude de 500 m[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Anomalophlebia nitida, une femelle dont l'abdomen est endommagé entre les segments 4 et 5, mesure 38 mm dont 29 mm pour l'abdomen. Ses ailes postérieures mesurent 24 mm.
+L'holotype a été découvert au Venezuela, dans l'État de Bolívar, à une altitude de 500 m.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Jean Belle, « On the female sex of some elusive South-­American Gomphidae with the descriptions of three new genera and four new species (Odonata) », Zoologische Mededelingen, NBC, vol. 69, no 2,‎ 1995, p. 19-36 (ISSN 0024-0672 et 1876-2174, OCLC 212304577, lire en ligne)</t>
         </is>
